--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_NguyenBaTuan.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang11/2.XuLyBH/XLBH2111_NguyenBaTuan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang11\2.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang11\2.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="34" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="74">
   <si>
     <t>STT</t>
   </si>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2786,13 +2786,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2804,6 +2797,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2814,8 +2814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3027,24 +3027,56 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="1"/>
+      <c r="B6" s="37">
+        <v>44530</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44530</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="39">
+        <v>866192037824669</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="4"/>
+      <c r="O6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="T6" s="43"/>
       <c r="U6" s="66" t="s">
         <v>18</v>
@@ -3459,7 +3491,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3896,7 +3928,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -3992,7 +4024,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4571,13 +4603,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4589,6 +4614,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
